--- a/Carrito1.xlsx
+++ b/Carrito1.xlsx
@@ -1,43 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.JUAN\01-JUAN\UTP\CICLO2\CALCULO Y FISICA 1\PROYECTO_MRUV_CAF_PY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD6550-E630-40D2-9A11-6A35CC9ADC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>distancia</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>velocidad</t>
+  </si>
+  <si>
+    <t>objeto</t>
+  </si>
+  <si>
+    <t>objetodistancia</t>
+  </si>
+  <si>
+    <t>Carrito1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +106,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,7 +302,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -279,31 +312,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -325,7 +358,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -383,7 +416,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +429,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,124 +452,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>distancia</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>acceleration</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>velocidad</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>objeto</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>objetodistancia</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="C2" s="3">
         <v>-20</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3">
         <v>25</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Carrito1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
         <v>-10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carrito1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="B4" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="C4" s="4">
         <v>-6.666666666666667</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3">
         <v>15</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Carrito1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="B5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
         <v>-5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Carrito1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95.8333333333333</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>110.833333333333</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>125.833333333333</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>140.833333333333</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>155.833333333333</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>170.833333333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>185.833333333333</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>200.833333333333</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>215.833333333333</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>